--- a/data/pca/factorExposure/factorExposure_2016-06-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009877242931717847</v>
+        <v>0.01255100482856361</v>
       </c>
       <c r="C2">
-        <v>-0.05035340842835898</v>
+        <v>0.04067085223770123</v>
       </c>
       <c r="D2">
-        <v>-0.03730577138469458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06264072097593142</v>
+      </c>
+      <c r="E2">
+        <v>-0.07463507130676203</v>
+      </c>
+      <c r="F2">
+        <v>0.05982143791947353</v>
+      </c>
+      <c r="G2">
+        <v>0.04040668516395733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04101880724153381</v>
+        <v>0.02633984507064061</v>
       </c>
       <c r="C3">
-        <v>-0.118825804508467</v>
+        <v>0.077051367074467</v>
       </c>
       <c r="D3">
-        <v>-0.09709456239955591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08629942617516413</v>
+      </c>
+      <c r="E3">
+        <v>-0.06519031403735892</v>
+      </c>
+      <c r="F3">
+        <v>-0.02421703066613232</v>
+      </c>
+      <c r="G3">
+        <v>-0.03294374176443072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05977251304244206</v>
+        <v>0.05706309479904429</v>
       </c>
       <c r="C4">
-        <v>-0.06029138614292925</v>
+        <v>0.06409682525849295</v>
       </c>
       <c r="D4">
-        <v>-0.03402136332413526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.060668600292357</v>
+      </c>
+      <c r="E4">
+        <v>-0.07643308716921113</v>
+      </c>
+      <c r="F4">
+        <v>0.07226213227716598</v>
+      </c>
+      <c r="G4">
+        <v>-0.03809371893168085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0395677525711824</v>
+        <v>0.03551546222269056</v>
       </c>
       <c r="C6">
-        <v>-0.03993005244639785</v>
+        <v>0.03221361366390655</v>
       </c>
       <c r="D6">
-        <v>-0.0315998544463881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06497690544679451</v>
+      </c>
+      <c r="E6">
+        <v>-0.07863858225814004</v>
+      </c>
+      <c r="F6">
+        <v>0.04895403421690267</v>
+      </c>
+      <c r="G6">
+        <v>-0.02267357802394901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02060144060882148</v>
+        <v>0.01777304279809862</v>
       </c>
       <c r="C7">
-        <v>-0.04436886852319095</v>
+        <v>0.03837782540954129</v>
       </c>
       <c r="D7">
-        <v>0.004078219249287255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0388184678045216</v>
+      </c>
+      <c r="E7">
+        <v>-0.05487174921899558</v>
+      </c>
+      <c r="F7">
+        <v>0.0930113867149093</v>
+      </c>
+      <c r="G7">
+        <v>-0.01215446702456422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003561857882351848</v>
+        <v>0.002636304206648173</v>
       </c>
       <c r="C8">
-        <v>-0.03058392538018294</v>
+        <v>0.02939038596332573</v>
       </c>
       <c r="D8">
-        <v>-0.02097726565033913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03152520932320294</v>
+      </c>
+      <c r="E8">
+        <v>-0.05158773042876364</v>
+      </c>
+      <c r="F8">
+        <v>0.03020713679802812</v>
+      </c>
+      <c r="G8">
+        <v>-0.008663789622853931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03265432069940697</v>
+        <v>0.03637090586290909</v>
       </c>
       <c r="C9">
-        <v>-0.04671258841955652</v>
+        <v>0.05102754273997084</v>
       </c>
       <c r="D9">
-        <v>-0.01670746386369554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0434669969284258</v>
+      </c>
+      <c r="E9">
+        <v>-0.06470263875972677</v>
+      </c>
+      <c r="F9">
+        <v>0.07841771335372105</v>
+      </c>
+      <c r="G9">
+        <v>-0.02478188519593824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0797689694692623</v>
+        <v>0.1013895804378299</v>
       </c>
       <c r="C10">
-        <v>0.1934218197485982</v>
+        <v>-0.1965647455521702</v>
       </c>
       <c r="D10">
-        <v>0.006242007327026743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005625966818228947</v>
+      </c>
+      <c r="E10">
+        <v>-0.04515534525160073</v>
+      </c>
+      <c r="F10">
+        <v>0.03401566646091617</v>
+      </c>
+      <c r="G10">
+        <v>-0.01186139159839239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04014259749158689</v>
+        <v>0.03598436025064627</v>
       </c>
       <c r="C11">
-        <v>-0.0554958968756754</v>
+        <v>0.05087452702887962</v>
       </c>
       <c r="D11">
-        <v>-0.01782746174750942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0353336495506832</v>
+      </c>
+      <c r="E11">
+        <v>-0.02155837387534449</v>
+      </c>
+      <c r="F11">
+        <v>0.06352864132988927</v>
+      </c>
+      <c r="G11">
+        <v>-0.01800505601567819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0412379408066668</v>
+        <v>0.03794432378305736</v>
       </c>
       <c r="C12">
-        <v>-0.0501053287517579</v>
+        <v>0.04779475210852582</v>
       </c>
       <c r="D12">
-        <v>-0.006449726508024956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02882184335984646</v>
+      </c>
+      <c r="E12">
+        <v>-0.0293233137139863</v>
+      </c>
+      <c r="F12">
+        <v>0.0637309965811144</v>
+      </c>
+      <c r="G12">
+        <v>-0.0153536119858054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01301453449734679</v>
+        <v>0.01140732990002242</v>
       </c>
       <c r="C13">
-        <v>-0.0558364111862351</v>
+        <v>0.0455546305908798</v>
       </c>
       <c r="D13">
-        <v>-0.01779650253978602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05754743655116985</v>
+      </c>
+      <c r="E13">
+        <v>-0.09092898463558408</v>
+      </c>
+      <c r="F13">
+        <v>0.08603174716587023</v>
+      </c>
+      <c r="G13">
+        <v>-0.02078275445618547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006211593892310063</v>
+        <v>0.004242299347418777</v>
       </c>
       <c r="C14">
-        <v>-0.03940323417948188</v>
+        <v>0.03366024467615854</v>
       </c>
       <c r="D14">
-        <v>0.01207906362806454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02551144145918626</v>
+      </c>
+      <c r="E14">
+        <v>-0.04332915485444459</v>
+      </c>
+      <c r="F14">
+        <v>0.08741658565522535</v>
+      </c>
+      <c r="G14">
+        <v>0.001615483724419781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002244178760234677</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005066593243609493</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007252742275031017</v>
+      </c>
+      <c r="E15">
+        <v>-0.003244105089942879</v>
+      </c>
+      <c r="F15">
+        <v>0.005829151612877694</v>
+      </c>
+      <c r="G15">
+        <v>0.0001470675456454193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03644689645695438</v>
+        <v>0.03385143784035514</v>
       </c>
       <c r="C16">
-        <v>-0.04822197465033883</v>
+        <v>0.04551066956623887</v>
       </c>
       <c r="D16">
-        <v>-0.01067421342995632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02829306985566598</v>
+      </c>
+      <c r="E16">
+        <v>-0.03508535247278473</v>
+      </c>
+      <c r="F16">
+        <v>0.0639458391385649</v>
+      </c>
+      <c r="G16">
+        <v>-0.003828489892805754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02037431198924124</v>
+        <v>0.01569784503108049</v>
       </c>
       <c r="C19">
-        <v>-0.06688164048263562</v>
+        <v>0.05030110659188383</v>
       </c>
       <c r="D19">
-        <v>-0.08208159252519906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09192880686957208</v>
+      </c>
+      <c r="E19">
+        <v>-0.100946438778999</v>
+      </c>
+      <c r="F19">
+        <v>0.06204319044785267</v>
+      </c>
+      <c r="G19">
+        <v>0.02602137766840467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01548494214684321</v>
+        <v>0.012895697417683</v>
       </c>
       <c r="C20">
-        <v>-0.04988724570637969</v>
+        <v>0.04123014677058415</v>
       </c>
       <c r="D20">
-        <v>-0.01445947121857199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03972494191786599</v>
+      </c>
+      <c r="E20">
+        <v>-0.07342640088851117</v>
+      </c>
+      <c r="F20">
+        <v>0.0690186542003159</v>
+      </c>
+      <c r="G20">
+        <v>-0.007481739197478578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.00874614612970725</v>
+        <v>0.00852971509668763</v>
       </c>
       <c r="C21">
-        <v>-0.04919846728709431</v>
+        <v>0.04294575325028985</v>
       </c>
       <c r="D21">
-        <v>-0.03561196105685858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06643030101985917</v>
+      </c>
+      <c r="E21">
+        <v>-0.1099653359012929</v>
+      </c>
+      <c r="F21">
+        <v>0.1067955803462244</v>
+      </c>
+      <c r="G21">
+        <v>-0.009520318780009585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007529006831900804</v>
+        <v>0.00264200103777745</v>
       </c>
       <c r="C22">
-        <v>-0.0005795224891722787</v>
+        <v>0.02445381536062769</v>
       </c>
       <c r="D22">
-        <v>-0.001440232079346936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04096685352101379</v>
+      </c>
+      <c r="E22">
+        <v>-0.03309970073683111</v>
+      </c>
+      <c r="F22">
+        <v>0.008184556915129489</v>
+      </c>
+      <c r="G22">
+        <v>-0.03883748958630597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.000758475451485826</v>
+        <v>0.00271339607439389</v>
       </c>
       <c r="C23">
-        <v>-0.0005797032345886352</v>
+        <v>0.02460279379956621</v>
       </c>
       <c r="D23">
-        <v>-0.001447400001036766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04063518683025116</v>
+      </c>
+      <c r="E23">
+        <v>-0.03337693497842679</v>
+      </c>
+      <c r="F23">
+        <v>0.007956883507816133</v>
+      </c>
+      <c r="G23">
+        <v>-0.03903376478397542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0329176980131693</v>
+        <v>0.03355024461521956</v>
       </c>
       <c r="C24">
-        <v>-0.05085184623474005</v>
+        <v>0.05341328345588166</v>
       </c>
       <c r="D24">
-        <v>-0.01119404386762828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02844700738320673</v>
+      </c>
+      <c r="E24">
+        <v>-0.03575015580214633</v>
+      </c>
+      <c r="F24">
+        <v>0.07004562811176387</v>
+      </c>
+      <c r="G24">
+        <v>-0.01152622762943639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04653856230016422</v>
+        <v>0.0434452562872281</v>
       </c>
       <c r="C25">
-        <v>-0.06225941042035706</v>
+        <v>0.0576352290185265</v>
       </c>
       <c r="D25">
-        <v>-0.002667742628522967</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02697236595885484</v>
+      </c>
+      <c r="E25">
+        <v>-0.02815968525286044</v>
+      </c>
+      <c r="F25">
+        <v>0.07342787383135241</v>
+      </c>
+      <c r="G25">
+        <v>-0.02883558785355133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01464576156055753</v>
+        <v>0.01419914636743997</v>
       </c>
       <c r="C26">
-        <v>-0.01940052795962317</v>
+        <v>0.01831961601844712</v>
       </c>
       <c r="D26">
-        <v>0.0007409775378850286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02481096111499726</v>
+      </c>
+      <c r="E26">
+        <v>-0.04339066152161906</v>
+      </c>
+      <c r="F26">
+        <v>0.06252983340041519</v>
+      </c>
+      <c r="G26">
+        <v>0.01077764783180866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0965766492656393</v>
+        <v>0.1372838719366458</v>
       </c>
       <c r="C28">
-        <v>0.2400545083185465</v>
+        <v>-0.2478524069873399</v>
       </c>
       <c r="D28">
-        <v>0.007179568780949345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01958222657227809</v>
+      </c>
+      <c r="E28">
+        <v>-0.06159847257867044</v>
+      </c>
+      <c r="F28">
+        <v>0.05311052597997327</v>
+      </c>
+      <c r="G28">
+        <v>-0.02299260854906008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006650021307830926</v>
+        <v>0.005666442556345678</v>
       </c>
       <c r="C29">
-        <v>-0.03215822940895419</v>
+        <v>0.02987421103910251</v>
       </c>
       <c r="D29">
-        <v>0.01551260345422325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01966922338138239</v>
+      </c>
+      <c r="E29">
+        <v>-0.0437431020856967</v>
+      </c>
+      <c r="F29">
+        <v>0.08142802056845851</v>
+      </c>
+      <c r="G29">
+        <v>-0.01167936333685488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04563034943934055</v>
+        <v>0.04110217495121457</v>
       </c>
       <c r="C30">
-        <v>-0.06474382910222934</v>
+        <v>0.06447341636780586</v>
       </c>
       <c r="D30">
-        <v>-0.07939557485681852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1097503450790847</v>
+      </c>
+      <c r="E30">
+        <v>-0.06853954274193197</v>
+      </c>
+      <c r="F30">
+        <v>0.07819727111178799</v>
+      </c>
+      <c r="G30">
+        <v>0.01294714846396001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05386614293053919</v>
+        <v>0.05545117998160549</v>
       </c>
       <c r="C31">
-        <v>-0.04208517492668708</v>
+        <v>0.05899742639897181</v>
       </c>
       <c r="D31">
-        <v>0.0276106849707123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.009643872388430348</v>
+      </c>
+      <c r="E31">
+        <v>-0.06678865212497653</v>
+      </c>
+      <c r="F31">
+        <v>0.06274191664731116</v>
+      </c>
+      <c r="G31">
+        <v>-0.04921504766929358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001543254398404165</v>
+        <v>0.005287093464608985</v>
       </c>
       <c r="C32">
-        <v>-0.03933881170645389</v>
+        <v>0.03324485916424422</v>
       </c>
       <c r="D32">
-        <v>-0.04571426500548164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05665699842335461</v>
+      </c>
+      <c r="E32">
+        <v>-0.04919009653328377</v>
+      </c>
+      <c r="F32">
+        <v>0.06260737520304463</v>
+      </c>
+      <c r="G32">
+        <v>0.009824066951235689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02577363359162511</v>
+        <v>0.0234288395217165</v>
       </c>
       <c r="C33">
-        <v>-0.06206617190727278</v>
+        <v>0.05575517730460039</v>
       </c>
       <c r="D33">
-        <v>-0.04835552204664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08101571483012129</v>
+      </c>
+      <c r="E33">
+        <v>-0.07947880220624982</v>
+      </c>
+      <c r="F33">
+        <v>0.1083923112545154</v>
+      </c>
+      <c r="G33">
+        <v>-0.02352480898159805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04502129882147915</v>
+        <v>0.0411435323255147</v>
       </c>
       <c r="C34">
-        <v>-0.06520699189317056</v>
+        <v>0.06434076979909108</v>
       </c>
       <c r="D34">
-        <v>-0.01616018116896212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03646116651806511</v>
+      </c>
+      <c r="E34">
+        <v>-0.008845776332638361</v>
+      </c>
+      <c r="F34">
+        <v>0.07650507740873864</v>
+      </c>
+      <c r="G34">
+        <v>-0.0140000040003722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01382391100276982</v>
+        <v>0.01333876679167869</v>
       </c>
       <c r="C36">
-        <v>-0.0155027616625723</v>
+        <v>0.01296107898796758</v>
       </c>
       <c r="D36">
-        <v>0.001265002003256877</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02716934601619412</v>
+      </c>
+      <c r="E36">
+        <v>-0.05281320827687741</v>
+      </c>
+      <c r="F36">
+        <v>0.06744626811067936</v>
+      </c>
+      <c r="G36">
+        <v>-0.01168826435599357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02898897477494658</v>
+        <v>0.02308807291927118</v>
       </c>
       <c r="C38">
-        <v>-0.03017747216174115</v>
+        <v>0.02401859529696744</v>
       </c>
       <c r="D38">
-        <v>0.007240604036852908</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02666705685038869</v>
+      </c>
+      <c r="E38">
+        <v>-0.04578005028747195</v>
+      </c>
+      <c r="F38">
+        <v>0.05389133265711533</v>
+      </c>
+      <c r="G38">
+        <v>-0.002775974039709828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04398224736247486</v>
+        <v>0.03927727410686008</v>
       </c>
       <c r="C39">
-        <v>-0.07039249373251047</v>
+        <v>0.0676094195498283</v>
       </c>
       <c r="D39">
-        <v>-0.02390933381104125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05589171284539045</v>
+      </c>
+      <c r="E39">
+        <v>-0.04059279459456853</v>
+      </c>
+      <c r="F39">
+        <v>0.08056964045269072</v>
+      </c>
+      <c r="G39">
+        <v>0.01086262498141592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01281473529348186</v>
+        <v>0.01337700661450814</v>
       </c>
       <c r="C40">
-        <v>-0.053653942868717</v>
+        <v>0.0395306812507289</v>
       </c>
       <c r="D40">
-        <v>-0.01779627722259328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03711590885770665</v>
+      </c>
+      <c r="E40">
+        <v>-0.0791680988538806</v>
+      </c>
+      <c r="F40">
+        <v>0.06237617136440357</v>
+      </c>
+      <c r="G40">
+        <v>-0.04035883713312393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01940609725830142</v>
+        <v>0.01829777074346243</v>
       </c>
       <c r="C41">
-        <v>-0.007904394413564246</v>
+        <v>0.008256507821332785</v>
       </c>
       <c r="D41">
-        <v>0.002668506811946034</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01534304927863594</v>
+      </c>
+      <c r="E41">
+        <v>-0.05211607800848925</v>
+      </c>
+      <c r="F41">
+        <v>0.05828188472102687</v>
+      </c>
+      <c r="G41">
+        <v>-0.004365866011893983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03594227576507426</v>
+        <v>0.02830835718023294</v>
       </c>
       <c r="C43">
-        <v>-0.02894176953423326</v>
+        <v>0.02295111621091011</v>
       </c>
       <c r="D43">
-        <v>-0.02369909855217197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0417492092046169</v>
+      </c>
+      <c r="E43">
+        <v>-0.06476658475469012</v>
+      </c>
+      <c r="F43">
+        <v>0.06469388031677289</v>
+      </c>
+      <c r="G43">
+        <v>-0.02299808405586941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01181492344164712</v>
+        <v>0.01330061234815384</v>
       </c>
       <c r="C44">
-        <v>-0.06627052667274709</v>
+        <v>0.05045747056564154</v>
       </c>
       <c r="D44">
-        <v>-0.0106593281044818</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04019948609464324</v>
+      </c>
+      <c r="E44">
+        <v>-0.08434338952286762</v>
+      </c>
+      <c r="F44">
+        <v>0.06711673207981904</v>
+      </c>
+      <c r="G44">
+        <v>0.005293916074462516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.005915226780107272</v>
+        <v>0.007926291117598716</v>
       </c>
       <c r="C46">
-        <v>-0.02563091740465849</v>
+        <v>0.02751953728701099</v>
       </c>
       <c r="D46">
-        <v>0.01873088592661862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01240407201415783</v>
+      </c>
+      <c r="E46">
+        <v>-0.05288277404527524</v>
+      </c>
+      <c r="F46">
+        <v>0.095661160745017</v>
+      </c>
+      <c r="G46">
+        <v>-0.005311844093399179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08156416730469251</v>
+        <v>0.08711123166604728</v>
       </c>
       <c r="C47">
-        <v>-0.06953524746179475</v>
+        <v>0.08045282703488199</v>
       </c>
       <c r="D47">
-        <v>0.02836825894628104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01550495583203201</v>
+      </c>
+      <c r="E47">
+        <v>-0.07028026475538118</v>
+      </c>
+      <c r="F47">
+        <v>0.06864042993478771</v>
+      </c>
+      <c r="G47">
+        <v>-0.05329794027151683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01752050666183201</v>
+        <v>0.01568565014486371</v>
       </c>
       <c r="C48">
-        <v>-0.01525484647425275</v>
+        <v>0.0168740423968383</v>
       </c>
       <c r="D48">
-        <v>0.01536958305322355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01656709649212674</v>
+      </c>
+      <c r="E48">
+        <v>-0.0642324440662411</v>
+      </c>
+      <c r="F48">
+        <v>0.08432228019443418</v>
+      </c>
+      <c r="G48">
+        <v>-0.01115514318529042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0789031978885117</v>
+        <v>0.07063109738089787</v>
       </c>
       <c r="C50">
-        <v>-0.07717238688498415</v>
+        <v>0.07402328806402783</v>
       </c>
       <c r="D50">
-        <v>0.02938899103547365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002218903112745329</v>
+      </c>
+      <c r="E50">
+        <v>-0.07339177058993558</v>
+      </c>
+      <c r="F50">
+        <v>0.0472090378053166</v>
+      </c>
+      <c r="G50">
+        <v>-0.07107922235560467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01446005291040213</v>
+        <v>0.01038886203954166</v>
       </c>
       <c r="C51">
-        <v>-0.05116044564155139</v>
+        <v>0.03368051336124118</v>
       </c>
       <c r="D51">
-        <v>-0.02816629552450387</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04991738559486706</v>
+      </c>
+      <c r="E51">
+        <v>-0.04249561633024941</v>
+      </c>
+      <c r="F51">
+        <v>0.07096120936538998</v>
+      </c>
+      <c r="G51">
+        <v>0.01837631168799497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07961903856959823</v>
+        <v>0.09323867410309675</v>
       </c>
       <c r="C53">
-        <v>-0.07955090075515144</v>
+        <v>0.08853713856370811</v>
       </c>
       <c r="D53">
-        <v>0.03953441852316394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03903856525542834</v>
+      </c>
+      <c r="E53">
+        <v>-0.06915653840218186</v>
+      </c>
+      <c r="F53">
+        <v>0.07752869225586592</v>
+      </c>
+      <c r="G53">
+        <v>-0.06666898198210008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02978477696742336</v>
+        <v>0.02753453286647283</v>
       </c>
       <c r="C54">
-        <v>-0.02918833950054725</v>
+        <v>0.02812713149670642</v>
       </c>
       <c r="D54">
-        <v>-0.004184061626605861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03112750850245605</v>
+      </c>
+      <c r="E54">
+        <v>-0.05100153806804253</v>
+      </c>
+      <c r="F54">
+        <v>0.09193269139160568</v>
+      </c>
+      <c r="G54">
+        <v>-0.01312009344039988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07351124495561229</v>
+        <v>0.0847322556383764</v>
       </c>
       <c r="C55">
-        <v>-0.05946042426817987</v>
+        <v>0.07111949890048533</v>
       </c>
       <c r="D55">
-        <v>0.04952162886755027</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04744195608479054</v>
+      </c>
+      <c r="E55">
+        <v>-0.05253275568355551</v>
+      </c>
+      <c r="F55">
+        <v>0.05393961201671768</v>
+      </c>
+      <c r="G55">
+        <v>-0.05387429470287985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1429192670865322</v>
+        <v>0.1467967487952719</v>
       </c>
       <c r="C56">
-        <v>-0.09587806012521038</v>
+        <v>0.1074249739795739</v>
       </c>
       <c r="D56">
-        <v>0.04249577995686956</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04564134863229981</v>
+      </c>
+      <c r="E56">
+        <v>-0.05320299612081718</v>
+      </c>
+      <c r="F56">
+        <v>0.0395955156166862</v>
+      </c>
+      <c r="G56">
+        <v>-0.05919791514190675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0007602609935315423</v>
+        <v>0.0002697796259146576</v>
       </c>
       <c r="C57">
-        <v>0.001745211916356177</v>
+        <v>-0.0008804253985846789</v>
       </c>
       <c r="D57">
-        <v>-0.0131515433389509</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01085535500754949</v>
+      </c>
+      <c r="E57">
+        <v>-0.006913878236471519</v>
+      </c>
+      <c r="F57">
+        <v>0.007244475680272985</v>
+      </c>
+      <c r="G57">
+        <v>0.0003170153245873624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04559230240110114</v>
+        <v>0.02760219780088389</v>
       </c>
       <c r="C58">
-        <v>-0.03277960997199049</v>
+        <v>0.02942308912267334</v>
       </c>
       <c r="D58">
-        <v>-0.6353342469238387</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4097342328792171</v>
+      </c>
+      <c r="E58">
+        <v>-0.6201093728520566</v>
+      </c>
+      <c r="F58">
+        <v>-0.5818984565380798</v>
+      </c>
+      <c r="G58">
+        <v>0.1030933038852498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1336313174741683</v>
+        <v>0.1442916670313646</v>
       </c>
       <c r="C59">
-        <v>0.1970803400062219</v>
+        <v>-0.1867648888288072</v>
       </c>
       <c r="D59">
-        <v>-0.01849289317264281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02617902422944296</v>
+      </c>
+      <c r="E59">
+        <v>-0.0245674310948074</v>
+      </c>
+      <c r="F59">
+        <v>0.0193009147494194</v>
+      </c>
+      <c r="G59">
+        <v>0.02897209371494329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3091871519593624</v>
+        <v>0.2816143464902808</v>
       </c>
       <c r="C60">
-        <v>-0.1022975502432464</v>
+        <v>0.1010199017583371</v>
       </c>
       <c r="D60">
-        <v>-0.1602250629057763</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2272979940715995</v>
+      </c>
+      <c r="E60">
+        <v>0.2748700238467284</v>
+      </c>
+      <c r="F60">
+        <v>-0.08051572001496536</v>
+      </c>
+      <c r="G60">
+        <v>-0.04765964495015388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04157553652813191</v>
+        <v>0.04036026933373129</v>
       </c>
       <c r="C61">
-        <v>-0.06664569871194388</v>
+        <v>0.06293751475153821</v>
       </c>
       <c r="D61">
-        <v>-0.01798889216841285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04691029610959398</v>
+      </c>
+      <c r="E61">
+        <v>-0.04451040890613085</v>
+      </c>
+      <c r="F61">
+        <v>0.0706198535201024</v>
+      </c>
+      <c r="G61">
+        <v>-0.01436019947070425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01462454059665407</v>
+        <v>0.01439961910718422</v>
       </c>
       <c r="C63">
-        <v>-0.03317751302558902</v>
+        <v>0.03180844571501828</v>
       </c>
       <c r="D63">
-        <v>0.0106595046859138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02028996886064434</v>
+      </c>
+      <c r="E63">
+        <v>-0.05569024910418068</v>
+      </c>
+      <c r="F63">
+        <v>0.06297826677459031</v>
+      </c>
+      <c r="G63">
+        <v>-0.03047818966210348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04807730372269638</v>
+        <v>0.05559859373608832</v>
       </c>
       <c r="C64">
-        <v>-0.04679240398557872</v>
+        <v>0.05607268103737936</v>
       </c>
       <c r="D64">
-        <v>-0.005629439678965948</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0096714295376603</v>
+      </c>
+      <c r="E64">
+        <v>-0.03816983887886165</v>
+      </c>
+      <c r="F64">
+        <v>0.08199252786130964</v>
+      </c>
+      <c r="G64">
+        <v>-0.01362348240285077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08643307792558932</v>
+        <v>0.06932182907020094</v>
       </c>
       <c r="C65">
-        <v>-0.03583517604329074</v>
+        <v>0.03362895737552461</v>
       </c>
       <c r="D65">
-        <v>-0.05332061619858246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08680207876689965</v>
+      </c>
+      <c r="E65">
+        <v>-0.04163166458159247</v>
+      </c>
+      <c r="F65">
+        <v>0.0002048613144676508</v>
+      </c>
+      <c r="G65">
+        <v>-1.222047526152209e-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06083686401144914</v>
+        <v>0.05141966800917548</v>
       </c>
       <c r="C66">
-        <v>-0.09856489357753727</v>
+        <v>0.08842787748899832</v>
       </c>
       <c r="D66">
-        <v>-0.04674272790647788</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0823492956516805</v>
+      </c>
+      <c r="E66">
+        <v>-0.04680519965381269</v>
+      </c>
+      <c r="F66">
+        <v>0.0820792994107474</v>
+      </c>
+      <c r="G66">
+        <v>-0.005882958060497065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05152155633018891</v>
+        <v>0.04531199470030065</v>
       </c>
       <c r="C67">
-        <v>-0.03400725201494628</v>
+        <v>0.03015059390392852</v>
       </c>
       <c r="D67">
-        <v>0.008833596450357774</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01335155815241919</v>
+      </c>
+      <c r="E67">
+        <v>-0.02502351145720415</v>
+      </c>
+      <c r="F67">
+        <v>0.0452795478688084</v>
+      </c>
+      <c r="G67">
+        <v>-0.009422164515557668</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1316301474502502</v>
+        <v>0.1526319311998676</v>
       </c>
       <c r="C68">
-        <v>0.2825933500841604</v>
+        <v>-0.2481593302621186</v>
       </c>
       <c r="D68">
-        <v>0.01293306658035527</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01786218562278559</v>
+      </c>
+      <c r="E68">
+        <v>-0.04307291767319811</v>
+      </c>
+      <c r="F68">
+        <v>0.01251602175988536</v>
+      </c>
+      <c r="G68">
+        <v>-0.01110045254140145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08826177155742142</v>
+        <v>0.08640889786193054</v>
       </c>
       <c r="C69">
-        <v>-0.06883289478807286</v>
+        <v>0.08747305796474326</v>
       </c>
       <c r="D69">
-        <v>0.0374354420336155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007574819616051884</v>
+      </c>
+      <c r="E69">
+        <v>-0.05366536225566877</v>
+      </c>
+      <c r="F69">
+        <v>0.08659370338853224</v>
+      </c>
+      <c r="G69">
+        <v>-0.03302799373102981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1197493565822872</v>
+        <v>0.143692554394427</v>
       </c>
       <c r="C71">
-        <v>0.2489595439735371</v>
+        <v>-0.2363043526598966</v>
       </c>
       <c r="D71">
-        <v>-0.02068456793977187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01026177396829559</v>
+      </c>
+      <c r="E71">
+        <v>-0.06648118285392131</v>
+      </c>
+      <c r="F71">
+        <v>0.04782274317854954</v>
+      </c>
+      <c r="G71">
+        <v>-0.03933642083967524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08969595289264937</v>
+        <v>0.09869796816403603</v>
       </c>
       <c r="C72">
-        <v>-0.056961768327266</v>
+        <v>0.05837427970903323</v>
       </c>
       <c r="D72">
-        <v>-0.009445821020886327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03176639462990965</v>
+      </c>
+      <c r="E72">
+        <v>-0.02291550252922253</v>
+      </c>
+      <c r="F72">
+        <v>0.06522202995369224</v>
+      </c>
+      <c r="G72">
+        <v>-0.03753064379999623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.407302625383109</v>
+        <v>0.345734404438049</v>
       </c>
       <c r="C73">
-        <v>-0.06097828216805144</v>
+        <v>0.07398847926360204</v>
       </c>
       <c r="D73">
-        <v>-0.3906693168063813</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4662278142352622</v>
+      </c>
+      <c r="E73">
+        <v>0.4852624341897936</v>
+      </c>
+      <c r="F73">
+        <v>-0.2219777460464694</v>
+      </c>
+      <c r="G73">
+        <v>-0.0997426349751564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1041230497098231</v>
+        <v>0.1092889591282063</v>
       </c>
       <c r="C74">
-        <v>-0.09597693589566247</v>
+        <v>0.09687989378722656</v>
       </c>
       <c r="D74">
-        <v>0.0233197011544895</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03057822885707217</v>
+      </c>
+      <c r="E74">
+        <v>-0.06870692400173059</v>
+      </c>
+      <c r="F74">
+        <v>0.03753655501159155</v>
+      </c>
+      <c r="G74">
+        <v>-0.07266533805739951</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2510678888889028</v>
+        <v>0.2563762896009971</v>
       </c>
       <c r="C75">
-        <v>-0.1039696623923132</v>
+        <v>0.1305911593868448</v>
       </c>
       <c r="D75">
-        <v>0.09618611739757242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1272821078837051</v>
+      </c>
+      <c r="E75">
+        <v>-0.06516301194488971</v>
+      </c>
+      <c r="F75">
+        <v>0.01626938168250192</v>
+      </c>
+      <c r="G75">
+        <v>-0.07687452135813393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1109797195934591</v>
+        <v>0.1260512539867921</v>
       </c>
       <c r="C76">
-        <v>-0.09180593471234066</v>
+        <v>0.1003126880013975</v>
       </c>
       <c r="D76">
-        <v>0.05083233933563487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05695586157150662</v>
+      </c>
+      <c r="E76">
+        <v>-0.08170476223482533</v>
+      </c>
+      <c r="F76">
+        <v>0.06004669705565971</v>
+      </c>
+      <c r="G76">
+        <v>-0.05785403729672446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0760983250264719</v>
+        <v>0.06044814049609124</v>
       </c>
       <c r="C77">
-        <v>-0.06334768554788255</v>
+        <v>0.07287323271111198</v>
       </c>
       <c r="D77">
-        <v>-0.05281318966331672</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06460896790926619</v>
+      </c>
+      <c r="E77">
+        <v>-0.09716927764052816</v>
+      </c>
+      <c r="F77">
+        <v>0.1124540111324423</v>
+      </c>
+      <c r="G77">
+        <v>0.1401939760420481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04716065326532215</v>
+        <v>0.04377271651040423</v>
       </c>
       <c r="C78">
-        <v>-0.05463770391435091</v>
+        <v>0.06015095571633516</v>
       </c>
       <c r="D78">
-        <v>-0.02967938500215966</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06734222929664771</v>
+      </c>
+      <c r="E78">
+        <v>-0.05035186507124377</v>
+      </c>
+      <c r="F78">
+        <v>0.08259418878866892</v>
+      </c>
+      <c r="G78">
+        <v>-0.008739994315263122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02791743925253947</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04262567115360203</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06034482234293765</v>
+      </c>
+      <c r="E79">
+        <v>-0.06657141066389911</v>
+      </c>
+      <c r="F79">
+        <v>0.02921862059336562</v>
+      </c>
+      <c r="G79">
+        <v>-0.07966693114983406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04199074205591433</v>
+        <v>0.03215389084048593</v>
       </c>
       <c r="C80">
-        <v>-0.05512304003003435</v>
+        <v>0.05416253640621865</v>
       </c>
       <c r="D80">
-        <v>-0.0274372022445428</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04182964895818821</v>
+      </c>
+      <c r="E80">
+        <v>-0.01573090592945911</v>
+      </c>
+      <c r="F80">
+        <v>0.03270100799835737</v>
+      </c>
+      <c r="G80">
+        <v>0.04485264643851566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1403207158895337</v>
+        <v>0.1398562732705102</v>
       </c>
       <c r="C81">
-        <v>-0.07933898126771505</v>
+        <v>0.09556670231012866</v>
       </c>
       <c r="D81">
-        <v>0.07827629702091102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1008624509578306</v>
+      </c>
+      <c r="E81">
+        <v>-0.08374569180299993</v>
+      </c>
+      <c r="F81">
+        <v>0.004913567676701566</v>
+      </c>
+      <c r="G81">
+        <v>-0.05282919618968984</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1645973961776818</v>
+        <v>0.2054499122949678</v>
       </c>
       <c r="C82">
-        <v>-0.0805973456997247</v>
+        <v>0.1444757858305222</v>
       </c>
       <c r="D82">
-        <v>0.1533278272208868</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.22693419682601</v>
+      </c>
+      <c r="E82">
+        <v>-0.01281999287526895</v>
+      </c>
+      <c r="F82">
+        <v>0.1078291270067682</v>
+      </c>
+      <c r="G82">
+        <v>-0.0576727881324719</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03864951301327887</v>
+        <v>0.02685884503935027</v>
       </c>
       <c r="C83">
-        <v>-0.03090247548393711</v>
+        <v>0.04262230943647638</v>
       </c>
       <c r="D83">
-        <v>-0.03391216093341278</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03295277789133729</v>
+      </c>
+      <c r="E83">
+        <v>-0.02117854450686619</v>
+      </c>
+      <c r="F83">
+        <v>0.04049029114989381</v>
+      </c>
+      <c r="G83">
+        <v>0.0198032860140424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001811613961372979</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008014921178944727</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001112926407961184</v>
+      </c>
+      <c r="E84">
+        <v>-0.0007459298799254442</v>
+      </c>
+      <c r="F84">
+        <v>0.00101188931173188</v>
+      </c>
+      <c r="G84">
+        <v>0.0002706250113582417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2180737881307193</v>
+        <v>0.2022711017823192</v>
       </c>
       <c r="C85">
-        <v>-0.1038556290383661</v>
+        <v>0.1172728050565106</v>
       </c>
       <c r="D85">
-        <v>0.1208025097100946</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09709537664350786</v>
+      </c>
+      <c r="E85">
+        <v>0.002188133092913406</v>
+      </c>
+      <c r="F85">
+        <v>-0.01013878834047865</v>
+      </c>
+      <c r="G85">
+        <v>-0.129225715080015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008781072992199211</v>
+        <v>0.01019162296120986</v>
       </c>
       <c r="C86">
-        <v>-0.04056157009875626</v>
+        <v>0.02873695745900411</v>
       </c>
       <c r="D86">
-        <v>-0.04051459446014047</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06373640928802898</v>
+      </c>
+      <c r="E86">
+        <v>-0.07039623979518193</v>
+      </c>
+      <c r="F86">
+        <v>0.1245409358384352</v>
+      </c>
+      <c r="G86">
+        <v>0.008438641094024897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02405585907914303</v>
+        <v>0.02271746247436493</v>
       </c>
       <c r="C87">
-        <v>-0.01287061114280228</v>
+        <v>0.01920443935162063</v>
       </c>
       <c r="D87">
-        <v>-0.08823973863371085</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09168941641786905</v>
+      </c>
+      <c r="E87">
+        <v>-0.1182386391613142</v>
+      </c>
+      <c r="F87">
+        <v>0.06219582186933399</v>
+      </c>
+      <c r="G87">
+        <v>0.04250873132015343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1046104142186851</v>
+        <v>0.09238083321351649</v>
       </c>
       <c r="C88">
-        <v>-0.06990608703882428</v>
+        <v>0.06254843950078531</v>
       </c>
       <c r="D88">
-        <v>0.02483900209464948</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.00688935666964844</v>
+      </c>
+      <c r="E88">
+        <v>-0.047762124243557</v>
+      </c>
+      <c r="F88">
+        <v>0.06768110087140215</v>
+      </c>
+      <c r="G88">
+        <v>0.02380677760905005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1906732068902441</v>
+        <v>0.2226886789846697</v>
       </c>
       <c r="C89">
-        <v>0.3731377458659749</v>
+        <v>-0.3781095607776908</v>
       </c>
       <c r="D89">
-        <v>0.01861732559095761</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.008777586499295423</v>
+      </c>
+      <c r="E89">
+        <v>-0.06883643395010154</v>
+      </c>
+      <c r="F89">
+        <v>0.0767684316731411</v>
+      </c>
+      <c r="G89">
+        <v>0.06122868616784494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1814226163917369</v>
+        <v>0.2009990999436333</v>
       </c>
       <c r="C90">
-        <v>0.3309853032461014</v>
+        <v>-0.3102287031143675</v>
       </c>
       <c r="D90">
-        <v>0.02109466428961782</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01390596010679365</v>
+      </c>
+      <c r="E90">
+        <v>-0.07536485072284253</v>
+      </c>
+      <c r="F90">
+        <v>0.03551144984778271</v>
+      </c>
+      <c r="G90">
+        <v>0.01347915779575498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1875537827934768</v>
+        <v>0.185502890873487</v>
       </c>
       <c r="C91">
-        <v>-0.1241940676592461</v>
+        <v>0.1416210256860783</v>
       </c>
       <c r="D91">
-        <v>0.09337091919704966</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1057414008853937</v>
+      </c>
+      <c r="E91">
+        <v>-0.0649641121654093</v>
+      </c>
+      <c r="F91">
+        <v>0.03128863195090067</v>
+      </c>
+      <c r="G91">
+        <v>-0.05887542615889745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1655536650053084</v>
+        <v>0.1814840082822113</v>
       </c>
       <c r="C92">
-        <v>0.280529907554214</v>
+        <v>-0.2854847871724677</v>
       </c>
       <c r="D92">
-        <v>0.005568815757175261</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01027127420858027</v>
+      </c>
+      <c r="E92">
+        <v>-0.07518549988812456</v>
+      </c>
+      <c r="F92">
+        <v>0.08165073869002158</v>
+      </c>
+      <c r="G92">
+        <v>0.007547557229231248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2042418077174634</v>
+        <v>0.2239883132552747</v>
       </c>
       <c r="C93">
-        <v>0.3344506093588285</v>
+        <v>-0.3172998788785888</v>
       </c>
       <c r="D93">
-        <v>0.02045753531368905</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.007971522746932197</v>
+      </c>
+      <c r="E93">
+        <v>-0.0485759912615055</v>
+      </c>
+      <c r="F93">
+        <v>0.03456838930441259</v>
+      </c>
+      <c r="G93">
+        <v>-0.02835316389424026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.344686606510645</v>
+        <v>0.346125916831589</v>
       </c>
       <c r="C94">
-        <v>-0.1520603753147583</v>
+        <v>0.1867202586235848</v>
       </c>
       <c r="D94">
-        <v>0.4912010833519225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5035516449335548</v>
+      </c>
+      <c r="E94">
+        <v>-0.01422560164890884</v>
+      </c>
+      <c r="F94">
+        <v>-0.4421550446220109</v>
+      </c>
+      <c r="G94">
+        <v>0.3500447786248213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1117520762838727</v>
+        <v>0.08363237871605893</v>
       </c>
       <c r="C95">
-        <v>-0.07472046107551435</v>
+        <v>0.06544144456799481</v>
       </c>
       <c r="D95">
-        <v>-0.1329695436109103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1672609389342128</v>
+      </c>
+      <c r="E95">
+        <v>0.1055082687664514</v>
+      </c>
+      <c r="F95">
+        <v>0.2698969442016302</v>
+      </c>
+      <c r="G95">
+        <v>0.8510063067438023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1937638192813624</v>
+        <v>0.1865014691569518</v>
       </c>
       <c r="C98">
-        <v>-0.02261431489659589</v>
+        <v>0.0421591409624146</v>
       </c>
       <c r="D98">
-        <v>-0.1487820731510889</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1867099825854791</v>
+      </c>
+      <c r="E98">
+        <v>0.1519164106786443</v>
+      </c>
+      <c r="F98">
+        <v>-0.0325192726679971</v>
+      </c>
+      <c r="G98">
+        <v>-0.09668605216756519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006609393112571</v>
+        <v>0.005725564264609294</v>
       </c>
       <c r="C101">
-        <v>-0.03216501229235434</v>
+        <v>0.0296156129803032</v>
       </c>
       <c r="D101">
-        <v>0.01618112256912878</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01912951879106946</v>
+      </c>
+      <c r="E101">
+        <v>-0.04438782437037098</v>
+      </c>
+      <c r="F101">
+        <v>0.08110783809975369</v>
+      </c>
+      <c r="G101">
+        <v>-0.01055523341779808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.121775908198042</v>
+        <v>0.1244997854839719</v>
       </c>
       <c r="C102">
-        <v>-0.07424213136086578</v>
+        <v>0.1001527583941259</v>
       </c>
       <c r="D102">
-        <v>0.02718815700765349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04422627646860765</v>
+      </c>
+      <c r="E102">
+        <v>0.001071493412072147</v>
+      </c>
+      <c r="F102">
+        <v>0.04642449436043021</v>
+      </c>
+      <c r="G102">
+        <v>-0.0194077633304932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
